--- a/data/df_gwent_leaders.xlsx
+++ b/data/df_gwent_leaders.xlsx
@@ -442,7 +442,7 @@
     <t xml:space="preserve">Order: Damage an enemy unit by 8. Deathblow: Give adjacent units Bleeding for a duration equal to any excess damage dealt.  This ability adds 16 provisions to your deck's provisions limit.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Order: Play a Skellige unit from your graveyard.  This ability adds 14 provisions to your deck's provisions limit. </t>
+    <t xml:space="preserve">Order: Play a Skellige unit with provision 9 or less from your graveyard.  This ability adds 12 provisions to your deck's provisions limit. </t>
   </si>
   <si>
     <t xml:space="preserve">Order: Damage an enemy unit by 1. Cooldown: 2. </t>
@@ -505,22 +505,22 @@
     <t xml:space="preserve">Order: Play a Syndicate special card from your deck. If its provision cost is 10 or less, gain 2 Coins.  This ability adds 13 provisions to your deck's provisions limit. </t>
   </si>
   <si>
-    <t xml:space="preserve">Order: Destroy an allied unit, then Spawn an Ekimmara in its row and boost it by the power of the destroyed target. Charge: 3.  This ability adds 13 provisions to your deck's provision limit. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order: Lock an enemy unit, then Spawn its base copy in the opposite row and boost it by 2.  This ability adds 13 provisions to your deck's provision limit. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order: Boost an allied unit by 1. Charge: 4 Once all Charges are used up, Spawn and play Lyrian Scytheman.  This ability adds 14 provisions to your deck's provision limit. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order: Spawn and play Tempering. All Dwarves in your starting deck get 1 Armor.  This ability adds 15 provisions to your deck's provision limit. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order: Move a Skellige unit from your deck to your graveyard, then damage an enemy unit by its power.  This ability adds 15 provisions to your deck's provision limit. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order: Gain 3 Coins. At the beginning of the round, refresh this ability. Your Hoards require 3 less Coins to trigger.  This ability adds 15 provisions to your deck's provision limit. </t>
+    <t xml:space="preserve">Order: Destroy an allied unit, then Spawn an Ekimmara in its row and boost it by the destroyed unit's power. Charge: 3.  This ability adds 14 provisions to your deck's provision limit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order: Lock an enemy unit, then Spawn its base copy in the opposite row and boost it by 2.  This ability adds 14 provisions to your deck's provision limit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order: Boost an allied unit by 1. Charge: 3 Once all Charges are used up, Spawn and play Lyrian Scytheman.  This ability adds 14 provisions to your deck's provision limit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order: Spawn and play Tempering. All Dwarves in your starting deck get 1 Armor.  This ability adds 16 provisions to your deck's provision limit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order: Move a Skellige unit from your deck to your graveyard, then damage an enemy unit by its power.  This ability adds 16 provisions to your deck's provision limit. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order: Gain 3 Coins. At the beginning of the round, refresh this ability. Your Hoards require 2 less Coins to trigger.  This ability adds 14 provisions to your deck's provision limit. </t>
   </si>
 </sst>
 </file>
@@ -988,7 +988,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>132103</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B5">
         <v>200055</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B6">
         <v>200159</v>
@@ -1093,7 +1093,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B7">
         <v>200160</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B8">
         <v>200161</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B9">
         <v>200162</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B10">
         <v>200163</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B11">
         <v>200164</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B12">
         <v>200165</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B13">
         <v>200166</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B14">
         <v>200167</v>
@@ -1373,7 +1373,7 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B15">
         <v>200168</v>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B16">
         <v>200170</v>
@@ -1443,7 +1443,7 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B17">
         <v>201580</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B18">
         <v>201589</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="1">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B19">
         <v>201595</v>
@@ -1548,7 +1548,7 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="1">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B20">
         <v>201597</v>
@@ -1560,7 +1560,7 @@
         <v>57</v>
       </c>
       <c r="E20">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
         <v>61</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="1">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B21">
         <v>202137</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="1">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B22">
         <v>201743</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="1">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B23">
         <v>202134</v>
@@ -1688,7 +1688,7 @@
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="1">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B24">
         <v>202139</v>
@@ -1723,7 +1723,7 @@
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="1">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B25">
         <v>202115</v>
@@ -1758,7 +1758,7 @@
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="1">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B26">
         <v>202116</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="1">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B27">
         <v>202117</v>
@@ -1828,7 +1828,7 @@
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="1">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B28">
         <v>202118</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="1">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B29">
         <v>202119</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="1">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B30">
         <v>202148</v>
@@ -1933,7 +1933,7 @@
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="1">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B31">
         <v>202185</v>
@@ -1968,7 +1968,7 @@
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="1">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B32">
         <v>202186</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="1">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B33">
         <v>202187</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="1">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B34">
         <v>202188</v>
@@ -2073,7 +2073,7 @@
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B35">
         <v>202189</v>
@@ -2108,7 +2108,7 @@
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="1">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B36">
         <v>202303</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="1">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B37">
         <v>202328</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="1">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B38">
         <v>202347</v>
@@ -2213,7 +2213,7 @@
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="1">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B39">
         <v>202373</v>
@@ -2248,7 +2248,7 @@
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="1">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="B40">
         <v>202390</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="1">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="B41">
         <v>202572</v>
@@ -2295,7 +2295,7 @@
         <v>57</v>
       </c>
       <c r="E41">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F41" t="s">
         <v>77</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="1">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="B42">
         <v>202573</v>
@@ -2327,7 +2327,7 @@
         <v>57</v>
       </c>
       <c r="E42">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
         <v>77</v>
@@ -2347,7 +2347,7 @@
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="B43">
         <v>202574</v>
@@ -2379,7 +2379,7 @@
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="1">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="B44">
         <v>202575</v>
@@ -2391,7 +2391,7 @@
         <v>57</v>
       </c>
       <c r="E44">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F44" t="s">
         <v>77</v>
@@ -2411,7 +2411,7 @@
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="1">
-        <v>959</v>
+        <v>961</v>
       </c>
       <c r="B45">
         <v>202576</v>
@@ -2423,7 +2423,7 @@
         <v>57</v>
       </c>
       <c r="E45">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F45" t="s">
         <v>77</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="1">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="B46">
         <v>202577</v>
@@ -2455,7 +2455,7 @@
         <v>57</v>
       </c>
       <c r="E46">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F46" t="s">
         <v>77</v>
